--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5162,7 +5163,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -5177,6 +5177,2150 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0966</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9845</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6799</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5677</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0886</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0455</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8749</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8229</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5249</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7327,4 +7328,3100 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.5022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>142.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.8558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.6852</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>117.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7369</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.6099</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.9553</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.7233</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.3637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.5072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6567</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3898</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3826</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1977</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7936</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6887</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4817</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4705</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4349</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1392</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0694</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0642</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0434</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9565</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8674</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8578</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8281</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8137</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6723</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10424,4 +10425,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>113.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10433,7 +10434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10444,17 +10445,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10464,14 +10485,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>113.33</v>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>196.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -10480,14 +10523,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.48</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10496,14 +10561,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.06</v>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.3001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -10512,13 +10599,2773 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.8849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.1738</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>112.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.9076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.8947</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.5544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.8421</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.3214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.0512</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.8628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6799</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.4974</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4359</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3150</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.0304</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6437</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5717</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4092</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3675</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8962</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8799</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8676</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8670</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8254</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8137</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7884</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6719</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6350</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3976</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012826</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012827</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>113.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>86</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>51.77</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13264,7 +13265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13275,17 +13276,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13295,14 +13316,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>113.85</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -13311,14 +13354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>113.33</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13327,14 +13392,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.48</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -13343,14 +13430,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.06</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -13359,13 +13468,1345 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8661</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6947</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6828</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5255</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>113.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>86</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>51.77</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14689,7 +14690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14700,17 +14701,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14720,14 +14741,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.92</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>146.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14736,14 +14779,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>113.85</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -14752,14 +14817,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>113.33</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -14768,14 +14855,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.48</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -14784,14 +14893,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.06</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -14800,13 +14931,2083 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2814</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8868</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7546</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4711</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3951</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9663</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8406</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5423</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4565</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4394</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014573</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红锦弘甄选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>113.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>86</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>51.77</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>47.98</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>29.92</v>
+        <v>47.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>113.85</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>113.33</v>
+        <v>113.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>56.48</v>
+        <v>113.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>41.06</v>
+        <v>56.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>86</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>51.77</v>
       </c>
     </row>
@@ -600,6 +617,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2783,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4207,7 +5154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7037,7 +7984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10133,7 +11080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12277,7 +13224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13694,7 +14641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02333-长城汽车.xlsx
+++ b/数据整理/stocks/港股/02333-长城汽车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>11.99</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>47.98</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>29.92</v>
+        <v>47.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>113.85</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>113.33</v>
+        <v>113.85</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>56.48</v>
+        <v>113.33</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>41.06</v>
+        <v>56.48</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3352 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>86</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>51.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009776</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>129.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009777</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6342</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3925</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2460</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1910</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0930</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0321</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8507</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8506</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8238</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>54.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>54.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3956,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1546</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8370</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7220</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5557</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3639</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015564</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015797</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015796</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015565</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +6195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3730,7 +8379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5154,7 +9803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7984,7 +12633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11080,7 +15729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13224,7 +17873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14639,3326 +19288,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010213</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧互联网先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>105.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.7895</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005267</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实价值精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.3393</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009776</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧阿尔法混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>129.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.8850</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.9915</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010298</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富品牌驱动六个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>75.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.6769</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006529</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>37.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.6659</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001878</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.5066</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009777</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧阿尔法混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>62.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>78.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.8663</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.6342</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010180</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏科技龙头两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>29.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.5231</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000041</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.3925</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009234</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华优质企业混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.81</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.2460</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008866</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>24.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.1910</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010214</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧互联网先锋混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16.92</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.0930</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>169102</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东方红睿阳三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>24.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.0321</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005612</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实核心优势股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>16.37</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.0084</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002653</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰康沪港深精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.0078</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.8507</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004477</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实沪港深回报混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>16.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.8506</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005888</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏新兴消费混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.8238</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.7609</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.7155</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>22.93</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.6237</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>161818</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银华消费主题混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.5388</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001581</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华安沪港深通精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.4846</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.4237</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005826</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华夏潜龙精选股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.4107</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006530</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.3770</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002891</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3514</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002892</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.3514</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002893</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.3514</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010562</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>永赢成长领航混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>54.89</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.3432</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008166</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.3358</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.3149</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005889</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华夏新兴消费混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.3056</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.2879</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>12.34</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.2665</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.2259</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.2151</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1873</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007177</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1793</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006604</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>嘉实消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1792</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1788</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1697</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>008234</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>光大保德信消费主题股票</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1676</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>003580</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.1537</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.1158</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005894</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华夏优势精选股票</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009867</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0961</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0941</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007277</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>恒生前海消费升级混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0901</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0771</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0685</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>519696</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>010563</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>永赢成长领航混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>54.89</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>006605</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>嘉实消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0539</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0507</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001662</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>创金合信沪港深研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>008167</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>008867</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>77.43</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>007132</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>长城港股通价值精选多策略混合</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>009868</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>007217</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>浙商智能行业优选混合C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>080006</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>长盛环球行业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>005707</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>